--- a/sources/Georgian_data.xlsx
+++ b/sources/Georgian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="724">
   <si>
     <t>language_no</t>
   </si>
@@ -1680,9 +1680,6 @@
     <t>(ze-)gavlena-s Ø-a-xd-en-s</t>
   </si>
   <si>
-    <t>PSTP:ON</t>
-  </si>
-  <si>
     <t>CV. "Оказывать воздействие", со структорой составляющих все ОК - возраст и память два зависимых уровня клаузы</t>
   </si>
   <si>
@@ -1692,18 +1689,12 @@
     <t>še-Ø-vid-a</t>
   </si>
   <si>
-    <t>PSTP:IN</t>
-  </si>
-  <si>
     <t>mo-Ø-u-g-o</t>
   </si>
   <si>
     <t>ga-Ø-vid-a</t>
   </si>
   <si>
-    <t>INS-PSTP:EL</t>
-  </si>
-  <si>
     <t>Был еще один перевод, на маркирование выбор не влиял</t>
   </si>
   <si>
@@ -1734,9 +1725,6 @@
     <t>Ø-čxub-ob-s</t>
   </si>
   <si>
-    <t>SOC</t>
-  </si>
-  <si>
     <t>Ø-megobr-ob-s</t>
   </si>
   <si>
@@ -1890,9 +1878,6 @@
     <t>gansxvavebul-i-a</t>
   </si>
   <si>
-    <t>GEN-PSTP:EL</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
@@ -2148,49 +2133,67 @@
     <t>Ø-e-sircxvil-eb-a</t>
   </si>
   <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>DATGEN</t>
-  </si>
-  <si>
-    <t>ERGNOM</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
-    <t>ERGPSTP:ON</t>
-  </si>
-  <si>
-    <t>ERGPSTP:IN</t>
-  </si>
-  <si>
-    <t>ERGDAT</t>
-  </si>
-  <si>
-    <t>NOMINS-PSTP:EL</t>
-  </si>
-  <si>
-    <t>ERGSOC</t>
-  </si>
-  <si>
-    <t>NOMPSTP:ON</t>
-  </si>
-  <si>
-    <t>NOMINS</t>
-  </si>
-  <si>
-    <t>NOMGEN-PSTP:EL</t>
-  </si>
-  <si>
-    <t>ERGINS</t>
-  </si>
-  <si>
-    <t>NOMNOM</t>
-  </si>
-  <si>
-    <t>NOMPSTP:IN</t>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>DAT_GEN</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>ERG_DAT</t>
+  </si>
+  <si>
+    <t>ERG_INS</t>
+  </si>
+  <si>
+    <t>DAT.SUPERESS</t>
+  </si>
+  <si>
+    <t>ERG_DAT.SUPERESS</t>
+  </si>
+  <si>
+    <t>DAT.SOC</t>
+  </si>
+  <si>
+    <t>ERG_DAT.SOC</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_INS</t>
+  </si>
+  <si>
+    <t>NOM_NOM_</t>
+  </si>
+  <si>
+    <t>GEN.EL</t>
+  </si>
+  <si>
+    <t>NOM_GEN.EL</t>
+  </si>
+  <si>
+    <t>INS.EL</t>
+  </si>
+  <si>
+    <t>NOM_INS.EL</t>
+  </si>
+  <si>
+    <t>DAT.INESS</t>
+  </si>
+  <si>
+    <t>NOM_DAT.INESS</t>
+  </si>
+  <si>
+    <t>ERG_DAT.INESS</t>
+  </si>
+  <si>
+    <t>NOM_DAT.SUPERESS</t>
   </si>
 </sst>
 </file>
@@ -2586,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2704,17 +2707,19 @@
       <c r="J2" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L2" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M2" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="4"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -2747,9 +2752,11 @@
       <c r="J3" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2790,19 +2797,21 @@
       <c r="J4" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>706</v>
+      </c>
       <c r="L4" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>542</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
@@ -2835,9 +2844,11 @@
       <c r="J5" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L5" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2878,9 +2889,11 @@
       <c r="J6" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L6" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2888,7 +2901,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -2921,9 +2934,11 @@
       <c r="J7" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2931,7 +2946,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="7"/>
+      <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
@@ -2964,17 +2979,19 @@
       <c r="J8" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>706</v>
+      </c>
       <c r="L8" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="M8" s="12"/>
+        <v>705</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -3007,19 +3024,21 @@
       <c r="J9" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L9" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>549</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -3052,9 +3071,11 @@
       <c r="J10" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L10" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -3093,21 +3114,23 @@
         <v>544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K11" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L11" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>553</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -3132,7 +3155,7 @@
         <v>62</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>538</v>
@@ -3140,9 +3163,11 @@
       <c r="J12" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -3175,17 +3200,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>720</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L13" s="4" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -3218,7 +3245,7 @@
         <v>70</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>544</v>
@@ -3226,9 +3253,11 @@
       <c r="J14" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L14" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -3236,7 +3265,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="7"/>
+      <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -3261,27 +3290,29 @@
         <v>74</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="K15" s="4"/>
+        <v>718</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L15" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>560</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="7"/>
+      <c r="S15" s="4" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
@@ -3306,7 +3337,7 @@
         <v>78</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>538</v>
@@ -3314,9 +3345,11 @@
       <c r="J16" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L16" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -3324,7 +3357,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -3349,7 +3382,7 @@
         <v>82</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>544</v>
@@ -3357,9 +3390,11 @@
       <c r="J17" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L17" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -3392,7 +3427,7 @@
         <v>86</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>544</v>
@@ -3400,9 +3435,11 @@
       <c r="J18" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -3435,7 +3472,7 @@
         <v>90</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>537</v>
@@ -3443,9 +3480,11 @@
       <c r="J19" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L19" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -3478,7 +3517,7 @@
         <v>94</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>538</v>
@@ -3486,9 +3525,11 @@
       <c r="J20" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L20" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -3496,7 +3537,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="7"/>
+      <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
@@ -3521,7 +3562,7 @@
         <v>98</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>544</v>
@@ -3529,9 +3570,11 @@
       <c r="J21" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L21" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -3564,7 +3607,7 @@
         <v>102</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>544</v>
@@ -3572,17 +3615,19 @@
       <c r="J22" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L22" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="M22" s="10"/>
+        <v>707</v>
+      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="7"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
@@ -3607,7 +3652,7 @@
         <v>106</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>544</v>
@@ -3615,9 +3660,11 @@
       <c r="J23" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L23" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -3650,17 +3697,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="K24" s="4"/>
+        <v>711</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L24" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -3668,7 +3717,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="7"/>
+      <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
@@ -3693,25 +3742,27 @@
         <v>114</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="K25" s="4"/>
+        <v>711</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L25" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="M25" s="8"/>
+        <v>712</v>
+      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="4"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
@@ -3736,17 +3787,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K26" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L26" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3779,7 +3832,7 @@
         <v>122</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>544</v>
@@ -3787,9 +3840,11 @@
       <c r="J27" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L27" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3822,7 +3877,7 @@
         <v>126</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>544</v>
@@ -3830,19 +3885,21 @@
       <c r="J28" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L28" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>575</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
+      <c r="S28" s="4" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
@@ -3867,7 +3924,7 @@
         <v>130</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>538</v>
@@ -3875,9 +3932,11 @@
       <c r="J29" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L29" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3910,7 +3969,7 @@
         <v>134</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>537</v>
@@ -3918,9 +3977,11 @@
       <c r="J30" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L30" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3928,7 +3989,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="7"/>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
@@ -3953,27 +4014,29 @@
         <v>138</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K31" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L31" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>579</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="4"/>
+      <c r="S31" s="4" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
@@ -3998,7 +4061,7 @@
         <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>544</v>
@@ -4006,9 +4069,11 @@
       <c r="J32" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L32" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -4041,7 +4106,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>544</v>
@@ -4049,9 +4114,11 @@
       <c r="J33" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L33" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -4084,7 +4151,7 @@
         <v>150</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>538</v>
@@ -4092,9 +4159,11 @@
       <c r="J34" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L34" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -4127,17 +4196,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K35" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L35" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -4170,7 +4241,7 @@
         <v>158</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>544</v>
@@ -4178,19 +4249,21 @@
       <c r="J36" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L36" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>585</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="4"/>
+      <c r="S36" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
@@ -4215,7 +4288,7 @@
         <v>162</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>544</v>
@@ -4223,9 +4296,11 @@
       <c r="J37" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L37" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -4258,7 +4333,7 @@
         <v>166</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>538</v>
@@ -4266,17 +4341,19 @@
       <c r="J38" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L38" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="M38" s="8"/>
+        <v>713</v>
+      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="4"/>
+      <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
@@ -4301,7 +4378,7 @@
         <v>169</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>537</v>
@@ -4309,17 +4386,19 @@
       <c r="J39" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L39" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M39" s="8"/>
+        <v>704</v>
+      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="4"/>
+      <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
@@ -4344,7 +4423,7 @@
         <v>173</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>538</v>
@@ -4352,9 +4431,11 @@
       <c r="J40" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L40" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -4387,7 +4468,7 @@
         <v>177</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>544</v>
@@ -4395,9 +4476,11 @@
       <c r="J41" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L41" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -4430,7 +4513,7 @@
         <v>181</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>544</v>
@@ -4438,9 +4521,11 @@
       <c r="J42" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L42" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -4473,25 +4558,27 @@
         <v>185</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K43" s="4"/>
+        <v>588</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="4"/>
+      <c r="S43" s="4" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
@@ -4516,7 +4603,7 @@
         <v>189</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>544</v>
@@ -4524,9 +4611,11 @@
       <c r="J44" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L44" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -4559,7 +4648,7 @@
         <v>193</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>544</v>
@@ -4567,19 +4656,21 @@
       <c r="J45" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L45" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>596</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="4"/>
+      <c r="S45" s="4" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
@@ -4604,7 +4695,7 @@
         <v>197</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>538</v>
@@ -4612,9 +4703,11 @@
       <c r="J46" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L46" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4647,7 +4740,7 @@
         <v>201</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>537</v>
@@ -4655,9 +4748,11 @@
       <c r="J47" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L47" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -4690,7 +4785,7 @@
         <v>205</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>544</v>
@@ -4698,19 +4793,21 @@
       <c r="J48" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L48" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>600</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="4"/>
+      <c r="S48" s="4" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
@@ -4735,17 +4832,19 @@
         <v>209</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K49" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L49" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -4778,7 +4877,7 @@
         <v>213</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>544</v>
@@ -4786,9 +4885,11 @@
       <c r="J50" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K50" s="4"/>
+      <c r="K50" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L50" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -4821,7 +4922,7 @@
         <v>217</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>544</v>
@@ -4829,9 +4930,11 @@
       <c r="J51" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L51" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -4864,7 +4967,7 @@
         <v>221</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>537</v>
@@ -4872,9 +4975,11 @@
       <c r="J52" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L52" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -4907,7 +5012,7 @@
         <v>225</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>544</v>
@@ -4915,9 +5020,11 @@
       <c r="J53" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L53" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -4950,7 +5057,7 @@
         <v>229</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>538</v>
@@ -4958,19 +5065,21 @@
       <c r="J54" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L54" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>607</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="4"/>
+      <c r="S54" s="4" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
@@ -4995,17 +5104,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="K55" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L55" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -5038,7 +5149,7 @@
         <v>237</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>544</v>
@@ -5046,9 +5157,11 @@
       <c r="J56" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L56" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -5081,7 +5194,7 @@
         <v>241</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>537</v>
@@ -5089,19 +5202,21 @@
       <c r="J57" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L57" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>612</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="4"/>
+      <c r="S57" s="4" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
@@ -5126,7 +5241,7 @@
         <v>245</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>537</v>
@@ -5134,17 +5249,19 @@
       <c r="J58" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L58" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M58" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="4"/>
+      <c r="S58" s="10"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
@@ -5169,7 +5286,7 @@
         <v>249</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>537</v>
@@ -5177,9 +5294,11 @@
       <c r="J59" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L59" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -5212,7 +5331,7 @@
         <v>253</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>537</v>
@@ -5220,9 +5339,11 @@
       <c r="J60" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K60" s="4"/>
+      <c r="K60" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L60" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -5255,7 +5376,7 @@
         <v>257</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>544</v>
@@ -5263,19 +5384,21 @@
       <c r="J61" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L61" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>617</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="4"/>
+      <c r="S61" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
@@ -5300,7 +5423,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>537</v>
@@ -5308,9 +5431,11 @@
       <c r="J62" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L62" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -5343,7 +5468,7 @@
         <v>265</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>544</v>
@@ -5351,9 +5476,11 @@
       <c r="J63" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L63" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -5386,7 +5513,7 @@
         <v>269</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>544</v>
@@ -5394,9 +5521,11 @@
       <c r="J64" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L64" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -5429,27 +5558,29 @@
         <v>273</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="K65" s="4"/>
+        <v>716</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L65" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>623</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="4"/>
+      <c r="S65" s="4" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
@@ -5474,7 +5605,7 @@
         <v>277</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>538</v>
@@ -5482,9 +5613,11 @@
       <c r="J66" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L66" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -5517,7 +5650,7 @@
         <v>281</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>544</v>
@@ -5525,9 +5658,11 @@
       <c r="J67" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K67" s="4"/>
+      <c r="K67" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L67" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -5560,25 +5695,27 @@
         <v>285</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K68" s="4"/>
+        <v>588</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
-      <c r="S68" s="4"/>
+      <c r="S68" s="4" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
@@ -5603,27 +5740,29 @@
         <v>289</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K69" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L69" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>629</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
-      <c r="S69" s="4"/>
+      <c r="S69" s="4" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
@@ -5648,7 +5787,7 @@
         <v>293</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>544</v>
@@ -5656,9 +5795,11 @@
       <c r="J70" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K70" s="4"/>
+      <c r="K70" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L70" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -5691,7 +5832,7 @@
         <v>297</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>544</v>
@@ -5699,9 +5840,11 @@
       <c r="J71" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K71" s="4"/>
+      <c r="K71" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L71" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -5734,7 +5877,7 @@
         <v>301</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>544</v>
@@ -5742,9 +5885,11 @@
       <c r="J72" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L72" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -5777,7 +5922,7 @@
         <v>305</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>544</v>
@@ -5785,9 +5930,11 @@
       <c r="J73" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L73" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -5820,7 +5967,7 @@
         <v>309</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>538</v>
@@ -5828,9 +5975,11 @@
       <c r="J74" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L74" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -5863,7 +6012,7 @@
         <v>313</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>544</v>
@@ -5871,9 +6020,11 @@
       <c r="J75" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K75" s="4"/>
+      <c r="K75" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L75" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -5906,7 +6057,7 @@
         <v>317</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>544</v>
@@ -5914,9 +6065,11 @@
       <c r="J76" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K76" s="4"/>
+      <c r="K76" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L76" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -5949,7 +6102,7 @@
         <v>321</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>537</v>
@@ -5957,9 +6110,11 @@
       <c r="J77" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K77" s="4"/>
+      <c r="K77" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L77" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -5992,7 +6147,7 @@
         <v>325</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>538</v>
@@ -6000,9 +6155,11 @@
       <c r="J78" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K78" s="4"/>
+      <c r="K78" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L78" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -6035,7 +6192,7 @@
         <v>329</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>537</v>
@@ -6043,19 +6200,21 @@
       <c r="J79" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L79" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>640</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
-      <c r="S79" s="4"/>
+      <c r="S79" s="4" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
@@ -6080,7 +6239,7 @@
         <v>333</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>538</v>
@@ -6088,19 +6247,21 @@
       <c r="J80" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K80" s="4"/>
+      <c r="K80" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L80" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>642</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
-      <c r="S80" s="4"/>
+      <c r="S80" s="4" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
@@ -6125,17 +6286,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="K81" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L81" s="4" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -6168,7 +6331,7 @@
         <v>341</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>538</v>
@@ -6176,9 +6339,11 @@
       <c r="J82" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K82" s="4"/>
+      <c r="K82" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L82" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -6211,17 +6376,19 @@
         <v>345</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="K83" s="4"/>
+        <v>711</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L83" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -6254,7 +6421,7 @@
         <v>349</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>537</v>
@@ -6262,9 +6429,11 @@
       <c r="J84" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>706</v>
+      </c>
       <c r="L84" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -6297,7 +6466,7 @@
         <v>353</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>538</v>
@@ -6305,19 +6474,21 @@
       <c r="J85" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L85" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>648</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
-      <c r="S85" s="4"/>
+      <c r="S85" s="4" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
@@ -6342,7 +6513,7 @@
         <v>357</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>544</v>
@@ -6350,9 +6521,11 @@
       <c r="J86" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L86" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -6385,7 +6558,7 @@
         <v>361</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>537</v>
@@ -6393,19 +6566,21 @@
       <c r="J87" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L87" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>651</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
-      <c r="S87" s="4"/>
+      <c r="S87" s="4" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
@@ -6430,7 +6605,7 @@
         <v>365</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>544</v>
@@ -6438,17 +6613,19 @@
       <c r="J88" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K88" s="4"/>
+      <c r="K88" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L88" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M88" s="10"/>
+        <v>703</v>
+      </c>
+      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
-      <c r="S88" s="4"/>
+      <c r="S88" s="10"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
@@ -6473,7 +6650,7 @@
         <v>369</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>537</v>
@@ -6481,9 +6658,11 @@
       <c r="J89" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L89" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -6516,7 +6695,7 @@
         <v>373</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>538</v>
@@ -6524,9 +6703,11 @@
       <c r="J90" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K90" s="4"/>
+      <c r="K90" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L90" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -6559,17 +6740,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="K91" s="4"/>
+        <v>718</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L91" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -6602,7 +6785,7 @@
         <v>381</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>544</v>
@@ -6610,9 +6793,11 @@
       <c r="J92" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L92" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
@@ -6645,7 +6830,7 @@
         <v>385</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>544</v>
@@ -6653,9 +6838,11 @@
       <c r="J93" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L93" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -6688,7 +6875,7 @@
         <v>389</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>537</v>
@@ -6696,19 +6883,21 @@
       <c r="J94" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L94" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>658</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
-      <c r="S94" s="4"/>
+      <c r="S94" s="4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
@@ -6733,7 +6922,7 @@
         <v>393</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>538</v>
@@ -6741,9 +6930,11 @@
       <c r="J95" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L95" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
@@ -6776,7 +6967,7 @@
         <v>397</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>544</v>
@@ -6784,9 +6975,11 @@
       <c r="J96" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K96" s="4"/>
+      <c r="K96" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L96" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
@@ -6819,7 +7012,7 @@
         <v>401</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>544</v>
@@ -6827,9 +7020,11 @@
       <c r="J97" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L97" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
@@ -6862,7 +7057,7 @@
         <v>405</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>537</v>
@@ -6870,9 +7065,11 @@
       <c r="J98" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K98" s="4"/>
+      <c r="K98" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L98" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -6905,7 +7102,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>538</v>
@@ -6913,9 +7110,11 @@
       <c r="J99" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L99" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
@@ -6948,25 +7147,27 @@
         <v>413</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K100" s="4"/>
+        <v>588</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="4" t="s">
-        <v>664</v>
-      </c>
+      <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
-      <c r="S100" s="4"/>
+      <c r="S100" s="4" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
@@ -6991,7 +7192,7 @@
         <v>417</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>538</v>
@@ -6999,9 +7200,11 @@
       <c r="J101" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L101" s="4" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -7034,7 +7237,7 @@
         <v>421</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>544</v>
@@ -7042,9 +7245,11 @@
       <c r="J102" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K102" s="4"/>
+      <c r="K102" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L102" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
@@ -7077,7 +7282,7 @@
         <v>425</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>544</v>
@@ -7085,19 +7290,21 @@
       <c r="J103" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L103" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>668</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="11"/>
-      <c r="S103" s="4"/>
+      <c r="S103" s="4" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
@@ -7122,7 +7329,7 @@
         <v>428</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>544</v>
@@ -7130,19 +7337,21 @@
       <c r="J104" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K104" s="4"/>
+      <c r="K104" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L104" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>670</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="11"/>
-      <c r="S104" s="4"/>
+      <c r="S104" s="4" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
@@ -7167,17 +7376,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="K105" s="4"/>
+        <v>720</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L105" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -7210,7 +7421,7 @@
         <v>436</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>544</v>
@@ -7218,9 +7429,11 @@
       <c r="J106" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K106" s="4"/>
+      <c r="K106" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L106" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -7253,7 +7466,7 @@
         <v>439</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>544</v>
@@ -7261,19 +7474,21 @@
       <c r="J107" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K107" s="4"/>
+      <c r="K107" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L107" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>674</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="11"/>
       <c r="Q107" s="11"/>
       <c r="R107" s="11"/>
-      <c r="S107" s="4"/>
+      <c r="S107" s="4" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
@@ -7298,7 +7513,7 @@
         <v>443</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>544</v>
@@ -7306,9 +7521,11 @@
       <c r="J108" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K108" s="4"/>
+      <c r="K108" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L108" s="4" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -7341,7 +7558,7 @@
         <v>447</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>544</v>
@@ -7349,9 +7566,11 @@
       <c r="J109" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K109" s="4"/>
+      <c r="K109" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L109" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -7384,7 +7603,7 @@
         <v>451</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>544</v>
@@ -7392,9 +7611,11 @@
       <c r="J110" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K110" s="4"/>
+      <c r="K110" s="4" t="s">
+        <v>703</v>
+      </c>
       <c r="L110" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -7402,7 +7623,7 @@
       <c r="P110" s="11"/>
       <c r="Q110" s="11"/>
       <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
+      <c r="S110" s="4"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
@@ -7427,7 +7648,7 @@
         <v>455</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>544</v>
@@ -7435,19 +7656,21 @@
       <c r="J111" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K111" s="4"/>
+      <c r="K111" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L111" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>679</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
+      <c r="S111" s="4" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
@@ -7472,7 +7695,7 @@
         <v>459</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>537</v>
@@ -7480,19 +7703,21 @@
       <c r="J112" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K112" s="4"/>
+      <c r="K112" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L112" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M112" s="4" t="s">
-        <v>681</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
       <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
+      <c r="S112" s="4" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
@@ -7517,27 +7742,29 @@
         <v>463</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="K113" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L113" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>683</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
       <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
+      <c r="S113" s="4" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
@@ -7562,7 +7789,7 @@
         <v>467</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>537</v>
@@ -7570,9 +7797,11 @@
       <c r="J114" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K114" s="4"/>
+      <c r="K114" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L114" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -7580,7 +7809,7 @@
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
       <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
+      <c r="S114" s="4"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
@@ -7605,7 +7834,7 @@
         <v>471</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>538</v>
@@ -7613,9 +7842,11 @@
       <c r="J115" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K115" s="4"/>
+      <c r="K115" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L115" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
@@ -7623,7 +7854,7 @@
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
+      <c r="S115" s="4"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
@@ -7648,7 +7879,7 @@
         <v>475</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>537</v>
@@ -7656,9 +7887,11 @@
       <c r="J116" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K116" s="4"/>
+      <c r="K116" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L116" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -7666,7 +7899,7 @@
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
       <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
+      <c r="S116" s="4"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
@@ -7691,7 +7924,7 @@
         <v>479</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>537</v>
@@ -7699,19 +7932,21 @@
       <c r="J117" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K117" s="4"/>
+      <c r="K117" s="4" t="s">
+        <v>706</v>
+      </c>
       <c r="L117" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>688</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
       <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
+      <c r="S117" s="4" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
@@ -7736,27 +7971,29 @@
         <v>483</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K118" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L118" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>690</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
       <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
+      <c r="S118" s="4" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
@@ -7781,27 +8018,29 @@
         <v>487</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="K119" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L119" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="M119" s="4" t="s">
-        <v>692</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
-      <c r="S119" s="4"/>
+      <c r="S119" s="4" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
@@ -7826,7 +8065,7 @@
         <v>490</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>537</v>
@@ -7834,9 +8073,11 @@
       <c r="J120" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K120" s="4"/>
+      <c r="K120" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L120" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
@@ -7869,17 +8110,19 @@
         <v>494</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>544</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="K121" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L121" s="4" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
@@ -7912,7 +8155,7 @@
         <v>498</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>537</v>
@@ -7920,9 +8163,11 @@
       <c r="J122" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K122" s="4"/>
+      <c r="K122" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L122" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
@@ -7955,7 +8200,7 @@
         <v>502</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>538</v>
@@ -7963,9 +8208,11 @@
       <c r="J123" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K123" s="4"/>
+      <c r="K123" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L123" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
@@ -7998,27 +8245,29 @@
         <v>506</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K124" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L124" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="M124" s="4" t="s">
-        <v>697</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
       <c r="R124" s="11"/>
-      <c r="S124" s="4"/>
+      <c r="S124" s="4" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
@@ -8043,7 +8292,7 @@
         <v>510</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>538</v>
@@ -8051,19 +8300,21 @@
       <c r="J125" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K125" s="4"/>
+      <c r="K125" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L125" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>699</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
       <c r="P125" s="11"/>
       <c r="Q125" s="11"/>
       <c r="R125" s="11"/>
-      <c r="S125" s="4"/>
+      <c r="S125" s="4" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
@@ -8088,27 +8339,29 @@
         <v>514</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="K126" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L126" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="M126" s="4" t="s">
-        <v>701</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="11"/>
       <c r="Q126" s="11"/>
       <c r="R126" s="11"/>
-      <c r="S126" s="4"/>
+      <c r="S126" s="4" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
@@ -8133,25 +8386,27 @@
         <v>518</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K127" s="4"/>
+        <v>588</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
       <c r="R127" s="11"/>
-      <c r="S127" s="4"/>
+      <c r="S127" s="4" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
@@ -8176,25 +8431,27 @@
         <v>522</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K128" s="4"/>
+        <v>588</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="4" t="s">
-        <v>703</v>
-      </c>
+      <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="11"/>
       <c r="Q128" s="11"/>
       <c r="R128" s="11"/>
-      <c r="S128" s="4"/>
+      <c r="S128" s="4" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
@@ -8219,17 +8476,19 @@
         <v>526</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>538</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K129" s="4"/>
+        <v>709</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L129" s="4" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
@@ -8262,7 +8521,7 @@
         <v>530</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>537</v>
@@ -8270,19 +8529,21 @@
       <c r="J130" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="K130" s="4"/>
+      <c r="K130" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="L130" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="M130" s="4" t="s">
-        <v>706</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="11"/>
       <c r="Q130" s="11"/>
       <c r="R130" s="11"/>
-      <c r="S130" s="4"/>
+      <c r="S130" s="4" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
@@ -8307,7 +8568,7 @@
         <v>534</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>537</v>
@@ -8315,9 +8576,11 @@
       <c r="J131" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K131" s="4"/>
+      <c r="K131" s="4" t="s">
+        <v>706</v>
+      </c>
       <c r="L131" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>

--- a/sources/Georgian_data.xlsx
+++ b/sources/Georgian_data.xlsx
@@ -2169,9 +2169,6 @@
     <t>NOM_INS</t>
   </si>
   <si>
-    <t>NOM_NOM_</t>
-  </si>
-  <si>
     <t>GEN.EL</t>
   </si>
   <si>
@@ -2194,6 +2191,9 @@
   </si>
   <si>
     <t>NOM_DAT.SUPERESS</t>
+  </si>
+  <si>
+    <t>NOM_NOM</t>
   </si>
 </sst>
 </file>
@@ -2590,7 +2590,7 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3206,13 +3206,13 @@
         <v>544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -3296,13 +3296,13 @@
         <v>538</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -4026,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -5564,13 +5564,13 @@
         <v>538</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -5752,7 +5752,7 @@
         <v>9</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -6746,13 +6746,13 @@
         <v>538</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -7204,7 +7204,7 @@
         <v>9</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -7382,13 +7382,13 @@
         <v>538</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -7983,7 +7983,7 @@
         <v>9</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
@@ -8257,7 +8257,7 @@
         <v>9</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
@@ -8488,7 +8488,7 @@
         <v>9</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
